--- a/docs/design/pss/limit-logic/mode-transition/truth-table-mode-set-reset.xlsx
+++ b/docs/design/pss/limit-logic/mode-transition/truth-table-mode-set-reset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\240613_HFU_SMA_Master_Thesis\obat\docs\design\pss\control-logic\limit-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\240613_HFU_SMA_Master_Thesis\obat\docs\design\pss\limit-logic\mode-transition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A18A924-7554-4F34-A0C7-61062448FB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE1886-17FD-462D-B0AB-44CD3122CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC98877B-7BEB-4BB2-B5C5-766C6DD71E55}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="20">
   <si>
     <t>LCLE</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,12 +319,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,12 +394,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -376,13 +452,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -499,27 +568,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -577,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}" name="Table1" displayName="Table1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" headerRowCellStyle="Output" dataCellStyle="Output">
-  <autoFilter ref="A1:N15" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}" name="Table1" displayName="Table1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" headerRowCellStyle="Output" dataCellStyle="Output">
+  <autoFilter ref="A1:N16" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1D4D7CFA-EEFF-49CC-B6E3-CD37603DD213}" name="REF" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{E872F240-7070-487A-A7D1-E1B89183F30B}" name="LVLE" dataDxfId="15"/>
@@ -587,13 +635,13 @@
     <tableColumn id="5" xr3:uid="{F1D526A6-C7EC-4884-86E9-64A0A4604C76}" name="UCLE" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{D0B5C53A-88DE-4A9E-976F-E36A9D1BA20B}" name="MSTT" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{E8A2B42D-CA06-4DC8-83BA-A70DFD2D6854}" name="MGTT" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B2368061-9F18-4098-9A4F-4B06E760DF3C}" name="VC" dataDxfId="6" dataCellStyle="Output"/>
-    <tableColumn id="9" xr3:uid="{D8248A7F-5964-4738-95C1-27D91A1C0045}" name="LCLC" dataDxfId="5" dataCellStyle="Output"/>
-    <tableColumn id="10" xr3:uid="{0434A4F2-0D31-487B-8538-80040501D86F}" name="UCLC" dataDxfId="4" dataCellStyle="Output"/>
-    <tableColumn id="11" xr3:uid="{5AC7D3EE-81C7-4EBC-9BD0-7AE42A9E9FDC}" name="CC" dataDxfId="3" dataCellStyle="Output"/>
-    <tableColumn id="12" xr3:uid="{CF1A8950-CF2C-496F-A1FD-F8F7FAF8BC53}" name="LVLC" dataDxfId="2" dataCellStyle="Output"/>
-    <tableColumn id="13" xr3:uid="{AC990C43-4F8C-41A5-A109-40604E315B53}" name="UVLC" dataDxfId="0" dataCellStyle="Output"/>
-    <tableColumn id="14" xr3:uid="{8E911C9F-856A-4EA8-8118-CAA6EB0E94CF}" name="Excl. By Design" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B2368061-9F18-4098-9A4F-4B06E760DF3C}" name="VC" dataDxfId="9" dataCellStyle="Output"/>
+    <tableColumn id="9" xr3:uid="{D8248A7F-5964-4738-95C1-27D91A1C0045}" name="LCLC" dataDxfId="8" dataCellStyle="Output"/>
+    <tableColumn id="10" xr3:uid="{0434A4F2-0D31-487B-8538-80040501D86F}" name="UCLC" dataDxfId="7" dataCellStyle="Output"/>
+    <tableColumn id="11" xr3:uid="{5AC7D3EE-81C7-4EBC-9BD0-7AE42A9E9FDC}" name="CC" dataDxfId="6" dataCellStyle="Output"/>
+    <tableColumn id="12" xr3:uid="{CF1A8950-CF2C-496F-A1FD-F8F7FAF8BC53}" name="LVLC" dataDxfId="5" dataCellStyle="Output"/>
+    <tableColumn id="13" xr3:uid="{AC990C43-4F8C-41A5-A109-40604E315B53}" name="UVLC" dataDxfId="4" dataCellStyle="Output"/>
+    <tableColumn id="14" xr3:uid="{8E911C9F-856A-4EA8-8118-CAA6EB0E94CF}" name="Excl. By Design" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -916,11 +964,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A2F88-A748-47D6-928C-CABCC02F70E6}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,15 +1591,59 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/design/pss/limit-logic/mode-transition/truth-table-mode-set-reset.xlsx
+++ b/docs/design/pss/limit-logic/mode-transition/truth-table-mode-set-reset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\240613_HFU_SMA_Master_Thesis\obat\docs\design\pss\limit-logic\mode-transition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EE1886-17FD-462D-B0AB-44CD3122CF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5D3D9D-58E5-4A32-822E-94A873D5B8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC98877B-7BEB-4BB2-B5C5-766C6DD71E55}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{CC98877B-7BEB-4BB2-B5C5-766C6DD71E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="22">
   <si>
     <t>LCLE</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>UI</t>
+  </si>
+  <si>
+    <t>S/R</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -395,14 +401,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}" name="Table1" displayName="Table1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" headerRowCellStyle="Output" dataCellStyle="Output">
-  <autoFilter ref="A1:N16" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}" name="Table1" displayName="Table1" ref="A1:N17" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" headerRowCellStyle="Output" dataCellStyle="Output">
+  <autoFilter ref="A1:N17" xr:uid="{DA27195F-AE67-4F40-BF86-8BB43EC4ABE0}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{1D4D7CFA-EEFF-49CC-B6E3-CD37603DD213}" name="REF" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{E872F240-7070-487A-A7D1-E1B89183F30B}" name="LVLE" dataDxfId="15"/>
@@ -964,11 +970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A2F88-A748-47D6-928C-CABCC02F70E6}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1219,9 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1263,9 @@
       <c r="I7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1292,10 +1302,10 @@
         <v>18</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>18</v>
@@ -1503,7 +1513,9 @@
       <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1545,7 +1557,9 @@
       <c r="L14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1582,56 +1596,100 @@
         <v>18</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="15" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
